--- a/recombination/rdp_stats_summary_compact_4sig.xlsx
+++ b/recombination/rdp_stats_summary_compact_4sig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10526"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gwenddolenkettenburg/Desktop/developer/mada-bat-picornavirus/recombination/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DBA01A3-9B8D-F741-BF2F-E4024E521695}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{923493C7-BE1D-7A43-8733-5F05F10DEA81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30780" yWindow="-1980" windowWidth="28040" windowHeight="17260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38460" yWindow="-1980" windowWidth="28040" windowHeight="17260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="rdp_stats_summary" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="152">
   <si>
     <t xml:space="preserve"> RDP</t>
   </si>
@@ -458,6 +458,24 @@
   </si>
   <si>
     <t>yes</t>
+  </si>
+  <si>
+    <t>PV788825</t>
+  </si>
+  <si>
+    <t>Unknown (PP711909)</t>
+  </si>
+  <si>
+    <t>Unknown(PP711930)</t>
+  </si>
+  <si>
+    <t>PP711913</t>
+  </si>
+  <si>
+    <t>Unknown (PP711930)</t>
+  </si>
+  <si>
+    <t>Unknown(PP711909)</t>
   </si>
 </sst>
 </file>
@@ -1073,7 +1091,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1091,7 +1109,6 @@
     <xf numFmtId="11" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
@@ -1468,17 +1485,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N70"/>
+  <dimension ref="A1:N74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="N68" sqref="N68"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="26.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.83203125" style="17"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" s="7" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -1497,7 +1513,7 @@
       <c r="E1" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="F1" s="17" t="s">
         <v>140</v>
       </c>
       <c r="G1" s="1" t="s">
@@ -1521,7 +1537,7 @@
       <c r="M1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="N1" s="18" t="s">
+      <c r="N1" s="17" t="s">
         <v>142</v>
       </c>
     </row>
@@ -1541,7 +1557,7 @@
       <c r="E2" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="17" t="s">
+      <c r="F2" t="s">
         <v>10</v>
       </c>
       <c r="G2" t="s">
@@ -1574,37 +1590,40 @@
         <v>115</v>
       </c>
       <c r="C3">
-        <v>3218</v>
+        <v>7547</v>
       </c>
       <c r="D3">
-        <v>4049</v>
+        <v>104</v>
       </c>
       <c r="E3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" s="17" t="s">
-        <v>13</v>
+        <v>146</v>
+      </c>
+      <c r="F3" t="s">
+        <v>147</v>
       </c>
       <c r="G3" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="H3" s="10">
-        <v>6.0099999999999997E-4</v>
-      </c>
-      <c r="I3" s="13">
-        <v>3.5999999999999999E-3</v>
+        <v>3.22735863970839E-5</v>
+      </c>
+      <c r="I3" t="s">
+        <v>8</v>
       </c>
       <c r="J3" t="s">
         <v>8</v>
       </c>
       <c r="K3" s="13">
-        <v>7.2000000000000005E-4</v>
+        <v>1.9594426605551001E-4</v>
       </c>
       <c r="L3" s="13">
-        <v>4.1000000000000002E-2</v>
-      </c>
-      <c r="M3" s="5" t="s">
-        <v>8</v>
+        <v>3.49790437275121E-4</v>
+      </c>
+      <c r="M3" s="5">
+        <v>3.7328050331658799E-2</v>
+      </c>
+      <c r="N3" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
@@ -1614,10 +1633,15 @@
       <c r="B4" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="E4" t="s">
-        <v>17</v>
-      </c>
-      <c r="H4" s="4"/>
+      <c r="F4" t="s">
+        <v>148</v>
+      </c>
+      <c r="G4" t="s">
+        <v>149</v>
+      </c>
+      <c r="H4" s="10"/>
+      <c r="K4" s="13"/>
+      <c r="L4" s="13"/>
       <c r="M4" s="5"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
@@ -1627,11 +1651,42 @@
       <c r="B5" s="4" t="s">
         <v>115</v>
       </c>
+      <c r="C5">
+        <v>814</v>
+      </c>
+      <c r="D5">
+        <v>1160</v>
+      </c>
       <c r="E5" t="s">
-        <v>22</v>
-      </c>
-      <c r="H5" s="4"/>
-      <c r="M5" s="5"/>
+        <v>146</v>
+      </c>
+      <c r="F5" t="s">
+        <v>149</v>
+      </c>
+      <c r="G5" t="s">
+        <v>150</v>
+      </c>
+      <c r="H5" s="10">
+        <v>7.9074702580138306E-3</v>
+      </c>
+      <c r="I5" t="s">
+        <v>8</v>
+      </c>
+      <c r="J5">
+        <v>2.19526240681252E-2</v>
+      </c>
+      <c r="K5" s="13">
+        <v>1.05950238646865E-2</v>
+      </c>
+      <c r="L5" s="13">
+        <v>3.87328861043032E-4</v>
+      </c>
+      <c r="M5" s="5">
+        <v>4.3266160872050798E-2</v>
+      </c>
+      <c r="N5" t="s">
+        <v>145</v>
+      </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="11" t="s">
@@ -1640,39 +1695,13 @@
       <c r="B6" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="C6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6">
-        <v>2830</v>
-      </c>
-      <c r="E6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" s="17" t="s">
-        <v>15</v>
-      </c>
       <c r="G6" t="s">
-        <v>20</v>
-      </c>
-      <c r="H6" s="10">
-        <v>1.0200000000000001E-3</v>
-      </c>
-      <c r="I6" t="s">
-        <v>8</v>
-      </c>
-      <c r="J6" s="13">
-        <v>1.5299999999999999E-3</v>
-      </c>
-      <c r="K6" s="13">
-        <v>3.4299999999999999E-7</v>
-      </c>
-      <c r="L6" s="13">
-        <v>3.6799999999999999E-6</v>
-      </c>
-      <c r="M6" s="9">
-        <v>5.2200000000000002E-5</v>
-      </c>
+        <v>151</v>
+      </c>
+      <c r="H6" s="10"/>
+      <c r="K6" s="13"/>
+      <c r="L6" s="13"/>
+      <c r="M6" s="5"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="11" t="s">
@@ -1682,37 +1711,37 @@
         <v>115</v>
       </c>
       <c r="C7">
-        <v>3986</v>
+        <v>3218</v>
       </c>
       <c r="D7">
-        <v>4905</v>
+        <v>4049</v>
       </c>
       <c r="E7" t="s">
-        <v>6</v>
-      </c>
-      <c r="F7" s="17" t="s">
-        <v>7</v>
+        <v>16</v>
+      </c>
+      <c r="F7" t="s">
+        <v>13</v>
       </c>
       <c r="G7" t="s">
-        <v>24</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="I7" t="s">
-        <v>8</v>
-      </c>
-      <c r="J7" s="13">
-        <v>6.2700000000000004E-3</v>
+        <v>21</v>
+      </c>
+      <c r="H7" s="10">
+        <v>6.0099999999999997E-4</v>
+      </c>
+      <c r="I7" s="13">
+        <v>3.5999999999999999E-3</v>
+      </c>
+      <c r="J7" t="s">
+        <v>8</v>
       </c>
       <c r="K7" s="13">
-        <v>1.04E-2</v>
+        <v>7.2000000000000005E-4</v>
       </c>
       <c r="L7" s="13">
-        <v>6.1799999999999995E-4</v>
-      </c>
-      <c r="M7" s="9">
-        <v>1.4799999999999999E-4</v>
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="M7" s="5" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
@@ -1722,174 +1751,143 @@
       <c r="B8" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="C8">
-        <v>7387</v>
-      </c>
-      <c r="D8">
-        <v>34</v>
-      </c>
       <c r="E8" t="s">
-        <v>7</v>
-      </c>
-      <c r="F8" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="G8" t="s">
-        <v>11</v>
-      </c>
-      <c r="H8" s="10">
-        <v>1.35E-2</v>
-      </c>
-      <c r="I8" t="s">
-        <v>8</v>
-      </c>
-      <c r="J8">
-        <v>1.8845876000000001E-2</v>
-      </c>
-      <c r="K8" s="13">
-        <v>1.01E-2</v>
-      </c>
-      <c r="L8" s="13">
-        <v>5.3400000000000001E-3</v>
-      </c>
-      <c r="M8" s="5" t="s">
-        <v>8</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="H8" s="4"/>
+      <c r="M8" s="5"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="11" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="C9">
-        <v>7198</v>
-      </c>
-      <c r="D9">
-        <v>560</v>
+        <v>115</v>
       </c>
       <c r="E9" t="s">
-        <v>28</v>
-      </c>
-      <c r="F9" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="G9" t="s">
-        <v>25</v>
-      </c>
-      <c r="H9" s="10">
-        <v>1.83E-4</v>
-      </c>
-      <c r="I9" s="13">
-        <v>1.46E-6</v>
-      </c>
-      <c r="J9" s="13">
-        <v>1.5799999999999999E-8</v>
-      </c>
-      <c r="K9" s="13">
-        <v>6.5899999999999996E-6</v>
-      </c>
-      <c r="L9" s="13">
-        <v>1.5100000000000001E-2</v>
-      </c>
-      <c r="M9" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="N9" t="s">
-        <v>145</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="H9" s="4"/>
+      <c r="M9" s="5"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="11" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>117</v>
+        <v>115</v>
+      </c>
+      <c r="C10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10">
+        <v>2830</v>
+      </c>
+      <c r="E10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F10" t="s">
+        <v>15</v>
       </c>
       <c r="G10" t="s">
-        <v>27</v>
-      </c>
-      <c r="H10" s="4"/>
-      <c r="M10" s="5"/>
+        <v>20</v>
+      </c>
+      <c r="H10" s="10">
+        <v>1.0200000000000001E-3</v>
+      </c>
+      <c r="I10" t="s">
+        <v>8</v>
+      </c>
+      <c r="J10" s="13">
+        <v>1.5299999999999999E-3</v>
+      </c>
+      <c r="K10" s="13">
+        <v>3.4299999999999999E-7</v>
+      </c>
+      <c r="L10" s="13">
+        <v>3.6799999999999999E-6</v>
+      </c>
+      <c r="M10" s="9">
+        <v>5.2200000000000002E-5</v>
+      </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="11" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C11">
-        <v>5987</v>
+        <v>3986</v>
       </c>
       <c r="D11">
-        <v>6127</v>
+        <v>4905</v>
       </c>
       <c r="E11" t="s">
-        <v>31</v>
-      </c>
-      <c r="F11" s="17" t="s">
-        <v>26</v>
+        <v>6</v>
+      </c>
+      <c r="F11" t="s">
+        <v>7</v>
       </c>
       <c r="G11" t="s">
-        <v>28</v>
-      </c>
-      <c r="H11" s="10">
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="I11" s="13">
-        <v>2.63E-2</v>
+        <v>24</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I11" t="s">
+        <v>8</v>
       </c>
       <c r="J11" s="13">
-        <v>4.46E-4</v>
+        <v>6.2700000000000004E-3</v>
       </c>
       <c r="K11" s="13">
-        <v>6.2500000000000003E-3</v>
+        <v>1.04E-2</v>
       </c>
       <c r="L11" s="13">
-        <v>3.64E-3</v>
-      </c>
-      <c r="M11" s="5" t="s">
-        <v>8</v>
+        <v>6.1799999999999995E-4</v>
+      </c>
+      <c r="M11" s="9">
+        <v>1.4799999999999999E-4</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" s="11" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="C12" t="s">
-        <v>29</v>
+        <v>115</v>
+      </c>
+      <c r="C12">
+        <v>7387</v>
       </c>
       <c r="D12">
-        <v>7197</v>
+        <v>34</v>
       </c>
       <c r="E12" t="s">
-        <v>28</v>
-      </c>
-      <c r="F12" s="17" t="s">
-        <v>27</v>
+        <v>7</v>
+      </c>
+      <c r="F12" t="s">
+        <v>18</v>
       </c>
       <c r="G12" t="s">
-        <v>30</v>
-      </c>
-      <c r="H12" s="4" t="s">
-        <v>8</v>
+        <v>11</v>
+      </c>
+      <c r="H12" s="10">
+        <v>1.35E-2</v>
       </c>
       <c r="I12" t="s">
         <v>8</v>
       </c>
-      <c r="J12" s="13">
-        <v>5.7600000000000001E-4</v>
+      <c r="J12">
+        <v>1.8845876000000001E-2</v>
       </c>
       <c r="K12" s="13">
-        <v>6.7299999999999999E-3</v>
+        <v>1.01E-2</v>
       </c>
       <c r="L12" s="13">
-        <v>7.9900000000000006E-3</v>
+        <v>5.3400000000000001E-3</v>
       </c>
       <c r="M12" s="5" t="s">
         <v>8</v>
@@ -1902,618 +1900,646 @@
       <c r="B13" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="F13" s="17" t="s">
+      <c r="C13">
+        <v>7198</v>
+      </c>
+      <c r="D13">
+        <v>560</v>
+      </c>
+      <c r="E13" t="s">
+        <v>28</v>
+      </c>
+      <c r="F13" t="s">
+        <v>26</v>
+      </c>
+      <c r="G13" t="s">
         <v>25</v>
       </c>
-      <c r="H13" s="4"/>
-      <c r="M13" s="5"/>
+      <c r="H13" s="10">
+        <v>1.83E-4</v>
+      </c>
+      <c r="I13" s="13">
+        <v>1.46E-6</v>
+      </c>
+      <c r="J13" s="13">
+        <v>1.5799999999999999E-8</v>
+      </c>
+      <c r="K13" s="13">
+        <v>6.5899999999999996E-6</v>
+      </c>
+      <c r="L13" s="13">
+        <v>1.5100000000000001E-2</v>
+      </c>
+      <c r="M13" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="N13" t="s">
+        <v>145</v>
+      </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" s="11" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="C14">
-        <v>7224</v>
-      </c>
-      <c r="D14">
-        <v>560</v>
-      </c>
-      <c r="E14" t="s">
-        <v>28</v>
-      </c>
-      <c r="F14" s="17" t="s">
-        <v>26</v>
-      </c>
       <c r="G14" t="s">
-        <v>25</v>
-      </c>
-      <c r="H14" s="10">
-        <v>1.5E-3</v>
-      </c>
-      <c r="I14" s="13">
-        <v>3.6300000000000001E-5</v>
-      </c>
-      <c r="J14" s="13">
-        <v>1.92E-7</v>
-      </c>
-      <c r="K14" s="13">
-        <v>1.9599999999999999E-4</v>
-      </c>
-      <c r="L14" s="13">
-        <v>1.36E-4</v>
-      </c>
-      <c r="M14" s="5" t="s">
-        <v>8</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="H14" s="4"/>
+      <c r="M14" s="5"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" s="11" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>117</v>
       </c>
+      <c r="C15">
+        <v>5987</v>
+      </c>
+      <c r="D15">
+        <v>6127</v>
+      </c>
+      <c r="E15" t="s">
+        <v>31</v>
+      </c>
+      <c r="F15" t="s">
+        <v>26</v>
+      </c>
       <c r="G15" t="s">
-        <v>27</v>
-      </c>
-      <c r="H15" s="4"/>
-      <c r="M15" s="5"/>
+        <v>28</v>
+      </c>
+      <c r="H15" s="10">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="I15" s="13">
+        <v>2.63E-2</v>
+      </c>
+      <c r="J15" s="13">
+        <v>4.46E-4</v>
+      </c>
+      <c r="K15" s="13">
+        <v>6.2500000000000003E-3</v>
+      </c>
+      <c r="L15" s="13">
+        <v>3.64E-3</v>
+      </c>
+      <c r="M15" s="5" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" s="11" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="C16">
-        <v>5987</v>
+      <c r="C16" t="s">
+        <v>29</v>
       </c>
       <c r="D16">
-        <v>6127</v>
+        <v>7197</v>
       </c>
       <c r="E16" t="s">
-        <v>31</v>
-      </c>
-      <c r="F16" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="F16" t="s">
+        <v>27</v>
+      </c>
+      <c r="G16" t="s">
+        <v>30</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I16" t="s">
+        <v>8</v>
+      </c>
+      <c r="J16" s="13">
+        <v>5.7600000000000001E-4</v>
+      </c>
+      <c r="K16" s="13">
+        <v>6.7299999999999999E-3</v>
+      </c>
+      <c r="L16" s="13">
+        <v>7.9900000000000006E-3</v>
+      </c>
+      <c r="M16" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A17" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="F17" t="s">
+        <v>25</v>
+      </c>
+      <c r="H17" s="4"/>
+      <c r="M17" s="5"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A18" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="C18">
+        <v>7224</v>
+      </c>
+      <c r="D18">
+        <v>560</v>
+      </c>
+      <c r="E18" t="s">
+        <v>28</v>
+      </c>
+      <c r="F18" t="s">
         <v>26</v>
       </c>
-      <c r="G16" t="s">
-        <v>28</v>
-      </c>
-      <c r="H16" s="10">
-        <v>2.0200000000000001E-3</v>
-      </c>
-      <c r="I16" t="s">
-        <v>8</v>
-      </c>
-      <c r="J16" s="13">
-        <v>1.81E-3</v>
-      </c>
-      <c r="K16" s="13">
-        <v>2.1499999999999998E-2</v>
-      </c>
-      <c r="L16" s="13">
-        <v>1.26E-2</v>
-      </c>
-      <c r="M16" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A17" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="C17">
-        <v>3698</v>
-      </c>
-      <c r="D17" t="s">
-        <v>36</v>
-      </c>
-      <c r="E17" t="s">
-        <v>33</v>
-      </c>
-      <c r="F17" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="G17" t="s">
-        <v>32</v>
-      </c>
-      <c r="H17" s="10">
-        <v>8.9400000000000005E-4</v>
-      </c>
-      <c r="I17" t="s">
-        <v>8</v>
-      </c>
-      <c r="J17" s="13">
-        <v>2.5600000000000001E-2</v>
-      </c>
-      <c r="K17" s="13">
-        <v>6.7799999999999996E-3</v>
-      </c>
-      <c r="L17" s="13">
-        <v>1E-3</v>
-      </c>
-      <c r="M17" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A18" s="11" t="s">
-        <v>122</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="C18">
-        <v>8268</v>
-      </c>
-      <c r="D18">
-        <v>1109</v>
-      </c>
-      <c r="E18" t="s">
-        <v>34</v>
-      </c>
-      <c r="F18" s="17" t="s">
-        <v>37</v>
-      </c>
       <c r="G18" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="H18" s="10">
-        <v>5.5899999999999997E-5</v>
-      </c>
-      <c r="I18" t="s">
-        <v>8</v>
+        <v>1.5E-3</v>
+      </c>
+      <c r="I18" s="13">
+        <v>3.6300000000000001E-5</v>
       </c>
       <c r="J18" s="13">
-        <v>3.7599999999999998E-4</v>
+        <v>1.92E-7</v>
       </c>
       <c r="K18" s="13">
-        <v>5.6499999999999996E-3</v>
+        <v>1.9599999999999999E-4</v>
       </c>
       <c r="L18" s="13">
-        <v>1.21E-4</v>
-      </c>
-      <c r="M18" s="9">
-        <v>3.3700000000000002E-3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+        <v>1.36E-4</v>
+      </c>
+      <c r="M18" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" s="11" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="E19" t="s">
-        <v>38</v>
+        <v>117</v>
+      </c>
+      <c r="G19" t="s">
+        <v>27</v>
       </c>
       <c r="H19" s="4"/>
       <c r="M19" s="5"/>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="C20">
+        <v>5987</v>
+      </c>
+      <c r="D20">
+        <v>6127</v>
+      </c>
+      <c r="E20" t="s">
+        <v>31</v>
+      </c>
+      <c r="F20" t="s">
+        <v>26</v>
+      </c>
+      <c r="G20" t="s">
+        <v>28</v>
+      </c>
+      <c r="H20" s="10">
+        <v>2.0200000000000001E-3</v>
+      </c>
+      <c r="I20" t="s">
+        <v>8</v>
+      </c>
+      <c r="J20" s="13">
+        <v>1.81E-3</v>
+      </c>
+      <c r="K20" s="13">
+        <v>2.1499999999999998E-2</v>
+      </c>
+      <c r="L20" s="13">
+        <v>1.26E-2</v>
+      </c>
+      <c r="M20" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A21" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C21">
+        <v>3698</v>
+      </c>
+      <c r="D21" t="s">
+        <v>36</v>
+      </c>
+      <c r="E21" t="s">
+        <v>33</v>
+      </c>
+      <c r="F21" t="s">
+        <v>35</v>
+      </c>
+      <c r="G21" t="s">
+        <v>32</v>
+      </c>
+      <c r="H21" s="10">
+        <v>8.9400000000000005E-4</v>
+      </c>
+      <c r="I21" t="s">
+        <v>8</v>
+      </c>
+      <c r="J21" s="13">
+        <v>2.5600000000000001E-2</v>
+      </c>
+      <c r="K21" s="13">
+        <v>6.7799999999999996E-3</v>
+      </c>
+      <c r="L21" s="13">
+        <v>1E-3</v>
+      </c>
+      <c r="M21" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A22" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B22" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="E20" t="s">
+      <c r="C22">
+        <v>8268</v>
+      </c>
+      <c r="D22">
+        <v>1109</v>
+      </c>
+      <c r="E22" t="s">
+        <v>34</v>
+      </c>
+      <c r="F22" t="s">
+        <v>37</v>
+      </c>
+      <c r="G22" t="s">
+        <v>32</v>
+      </c>
+      <c r="H22" s="10">
+        <v>5.5899999999999997E-5</v>
+      </c>
+      <c r="I22" t="s">
+        <v>8</v>
+      </c>
+      <c r="J22" s="13">
+        <v>3.7599999999999998E-4</v>
+      </c>
+      <c r="K22" s="13">
+        <v>5.6499999999999996E-3</v>
+      </c>
+      <c r="L22" s="13">
+        <v>1.21E-4</v>
+      </c>
+      <c r="M22" s="9">
+        <v>3.3700000000000002E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A23" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="E23" t="s">
+        <v>38</v>
+      </c>
+      <c r="H23" s="4"/>
+      <c r="M23" s="5"/>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A24" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="E24" t="s">
         <v>39</v>
-      </c>
-      <c r="H20" s="4"/>
-      <c r="M20" s="5"/>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A21" s="11" t="s">
-        <v>124</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="C21">
-        <v>5891</v>
-      </c>
-      <c r="D21">
-        <v>5982</v>
-      </c>
-      <c r="E21" t="s">
-        <v>48</v>
-      </c>
-      <c r="F21" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="G21" t="s">
-        <v>40</v>
-      </c>
-      <c r="H21" s="10">
-        <v>4.2400000000000001E-5</v>
-      </c>
-      <c r="I21" s="13">
-        <v>4.2599999999999999E-2</v>
-      </c>
-      <c r="J21" t="s">
-        <v>8</v>
-      </c>
-      <c r="K21" s="13">
-        <v>1.9599999999999999E-3</v>
-      </c>
-      <c r="L21" s="13">
-        <v>3.27E-2</v>
-      </c>
-      <c r="M21" s="9">
-        <v>4.8000000000000001E-4</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A22" s="11" t="s">
-        <v>124</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="G22" t="s">
-        <v>42</v>
-      </c>
-      <c r="H22" s="4"/>
-      <c r="M22" s="5"/>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A23" s="11" t="s">
-        <v>124</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="C23">
-        <v>4194</v>
-      </c>
-      <c r="D23">
-        <v>4435</v>
-      </c>
-      <c r="E23" t="s">
-        <v>41</v>
-      </c>
-      <c r="F23" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="G23" t="s">
-        <v>43</v>
-      </c>
-      <c r="H23" s="10">
-        <v>1.6799999999999999E-2</v>
-      </c>
-      <c r="I23" t="s">
-        <v>8</v>
-      </c>
-      <c r="J23" s="13">
-        <v>1.25E-4</v>
-      </c>
-      <c r="K23" s="13">
-        <v>1.92E-3</v>
-      </c>
-      <c r="L23" s="13">
-        <v>1.5699999999999999E-2</v>
-      </c>
-      <c r="M23" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A24" s="11" t="s">
-        <v>124</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="F24" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="G24" t="s">
-        <v>45</v>
       </c>
       <c r="H24" s="4"/>
       <c r="M24" s="5"/>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" s="11" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>123</v>
       </c>
       <c r="C25">
-        <v>4351</v>
+        <v>5891</v>
       </c>
       <c r="D25">
-        <v>4670</v>
+        <v>5982</v>
       </c>
       <c r="E25" t="s">
-        <v>45</v>
-      </c>
-      <c r="F25" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="F25" t="s">
         <v>41</v>
       </c>
       <c r="G25" t="s">
-        <v>49</v>
-      </c>
-      <c r="H25" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="I25" t="s">
-        <v>8</v>
-      </c>
-      <c r="J25" s="13">
-        <v>8.8199999999999997E-3</v>
+        <v>40</v>
+      </c>
+      <c r="H25" s="10">
+        <v>4.2400000000000001E-5</v>
+      </c>
+      <c r="I25" s="13">
+        <v>4.2599999999999999E-2</v>
+      </c>
+      <c r="J25" t="s">
+        <v>8</v>
       </c>
       <c r="K25" s="13">
-        <v>7.0499999999999998E-3</v>
+        <v>1.9599999999999999E-3</v>
       </c>
       <c r="L25" s="13">
-        <v>7.5799999999999999E-3</v>
-      </c>
-      <c r="M25" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+        <v>3.27E-2</v>
+      </c>
+      <c r="M25" s="9">
+        <v>4.8000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" s="11" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="C26">
-        <v>3461</v>
-      </c>
-      <c r="D26" t="s">
-        <v>50</v>
-      </c>
-      <c r="E26" t="s">
-        <v>40</v>
-      </c>
-      <c r="F26" s="17" t="s">
-        <v>44</v>
-      </c>
       <c r="G26" t="s">
-        <v>41</v>
-      </c>
-      <c r="H26" s="10">
-        <v>5.2399999999999999E-3</v>
-      </c>
-      <c r="I26" s="13">
-        <v>2.5999999999999999E-2</v>
-      </c>
-      <c r="J26" s="13">
-        <v>3.3000000000000002E-2</v>
-      </c>
-      <c r="K26" t="s">
-        <v>8</v>
-      </c>
-      <c r="L26" s="13">
-        <v>3.44E-2</v>
-      </c>
-      <c r="M26" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
+        <v>42</v>
+      </c>
+      <c r="H26" s="4"/>
+      <c r="M26" s="5"/>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27" s="11" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>123</v>
       </c>
+      <c r="C27">
+        <v>4194</v>
+      </c>
+      <c r="D27">
+        <v>4435</v>
+      </c>
       <c r="E27" t="s">
+        <v>41</v>
+      </c>
+      <c r="F27" t="s">
+        <v>44</v>
+      </c>
+      <c r="G27" t="s">
+        <v>43</v>
+      </c>
+      <c r="H27" s="10">
+        <v>1.6799999999999999E-2</v>
+      </c>
+      <c r="I27" t="s">
+        <v>8</v>
+      </c>
+      <c r="J27" s="13">
+        <v>1.25E-4</v>
+      </c>
+      <c r="K27" s="13">
+        <v>1.92E-3</v>
+      </c>
+      <c r="L27" s="13">
+        <v>1.5699999999999999E-2</v>
+      </c>
+      <c r="M27" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A28" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="F28" t="s">
+        <v>46</v>
+      </c>
+      <c r="G28" t="s">
+        <v>45</v>
+      </c>
+      <c r="H28" s="4"/>
+      <c r="M28" s="5"/>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A29" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="C29">
+        <v>4351</v>
+      </c>
+      <c r="D29">
+        <v>4670</v>
+      </c>
+      <c r="E29" t="s">
+        <v>45</v>
+      </c>
+      <c r="F29" t="s">
+        <v>41</v>
+      </c>
+      <c r="G29" t="s">
+        <v>49</v>
+      </c>
+      <c r="H29" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I29" t="s">
+        <v>8</v>
+      </c>
+      <c r="J29" s="13">
+        <v>8.8199999999999997E-3</v>
+      </c>
+      <c r="K29" s="13">
+        <v>7.0499999999999998E-3</v>
+      </c>
+      <c r="L29" s="13">
+        <v>7.5799999999999999E-3</v>
+      </c>
+      <c r="M29" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A30" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="C30">
+        <v>3461</v>
+      </c>
+      <c r="D30" t="s">
+        <v>50</v>
+      </c>
+      <c r="E30" t="s">
+        <v>40</v>
+      </c>
+      <c r="F30" t="s">
+        <v>44</v>
+      </c>
+      <c r="G30" t="s">
+        <v>41</v>
+      </c>
+      <c r="H30" s="10">
+        <v>5.2399999999999999E-3</v>
+      </c>
+      <c r="I30" s="13">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="J30" s="13">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="K30" t="s">
+        <v>8</v>
+      </c>
+      <c r="L30" s="13">
+        <v>3.44E-2</v>
+      </c>
+      <c r="M30" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A31" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="E31" t="s">
         <v>47</v>
-      </c>
-      <c r="H27" s="4"/>
-      <c r="M27" s="5"/>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A28" s="11" t="s">
-        <v>127</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="C28">
-        <v>4134</v>
-      </c>
-      <c r="D28">
-        <v>4957</v>
-      </c>
-      <c r="E28" t="s">
-        <v>143</v>
-      </c>
-      <c r="F28" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="G28" t="s">
-        <v>51</v>
-      </c>
-      <c r="H28" s="10">
-        <v>1.44E-4</v>
-      </c>
-      <c r="I28" t="s">
-        <v>8</v>
-      </c>
-      <c r="J28" s="13">
-        <v>3.3700000000000001E-4</v>
-      </c>
-      <c r="K28" s="13">
-        <v>3.5799999999999998E-3</v>
-      </c>
-      <c r="L28" s="13">
-        <v>1.64E-3</v>
-      </c>
-      <c r="M28" s="9">
-        <v>7.8700000000000003E-3</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A29" s="11" t="s">
-        <v>129</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="C29" t="s">
-        <v>55</v>
-      </c>
-      <c r="D29">
-        <v>817</v>
-      </c>
-      <c r="E29" t="s">
-        <v>62</v>
-      </c>
-      <c r="F29" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="G29" t="s">
-        <v>56</v>
-      </c>
-      <c r="H29" s="10">
-        <v>1.99E-9</v>
-      </c>
-      <c r="I29" s="13">
-        <v>1.11E-6</v>
-      </c>
-      <c r="J29" s="13">
-        <v>7.8299999999999996E-7</v>
-      </c>
-      <c r="K29" s="13">
-        <v>2.5699999999999999E-7</v>
-      </c>
-      <c r="L29" s="13">
-        <v>2.4600000000000002E-5</v>
-      </c>
-      <c r="M29" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="N29" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A30" s="11" t="s">
-        <v>129</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="G30" t="s">
-        <v>58</v>
-      </c>
-      <c r="H30" s="4"/>
-      <c r="M30" s="5"/>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A31" s="11" t="s">
-        <v>129</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="G31" t="s">
-        <v>53</v>
       </c>
       <c r="H31" s="4"/>
       <c r="M31" s="5"/>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A32" s="11" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C32">
-        <v>3071</v>
+        <v>4134</v>
       </c>
       <c r="D32">
-        <v>5027</v>
+        <v>4957</v>
       </c>
       <c r="E32" t="s">
-        <v>58</v>
-      </c>
-      <c r="F32" s="17" t="s">
-        <v>53</v>
+        <v>143</v>
+      </c>
+      <c r="F32" t="s">
+        <v>52</v>
       </c>
       <c r="G32" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="H32" s="10">
-        <v>6.34E-9</v>
+        <v>1.44E-4</v>
       </c>
       <c r="I32" t="s">
         <v>8</v>
       </c>
       <c r="J32" s="13">
-        <v>6.7700000000000004E-6</v>
+        <v>3.3700000000000001E-4</v>
       </c>
       <c r="K32" s="13">
-        <v>4.6600000000000005E-10</v>
+        <v>3.5799999999999998E-3</v>
       </c>
       <c r="L32" s="13">
-        <v>2.8699999999999998E-11</v>
+        <v>1.64E-3</v>
       </c>
       <c r="M32" s="9">
-        <v>1.8699999999999999E-14</v>
-      </c>
-      <c r="N32" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+        <v>7.8700000000000003E-3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A33" s="11" t="s">
         <v>129</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="C33">
-        <v>101</v>
+      <c r="C33" t="s">
+        <v>55</v>
       </c>
       <c r="D33">
-        <v>758</v>
+        <v>817</v>
       </c>
       <c r="E33" t="s">
-        <v>60</v>
-      </c>
-      <c r="F33" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="F33" t="s">
         <v>57</v>
       </c>
       <c r="G33" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H33" s="10">
-        <v>5.9400000000000002E-10</v>
+        <v>1.99E-9</v>
       </c>
       <c r="I33" s="13">
-        <v>8.3099999999999996E-8</v>
+        <v>1.11E-6</v>
       </c>
       <c r="J33" s="13">
-        <v>2.9799999999999999E-7</v>
+        <v>7.8299999999999996E-7</v>
       </c>
       <c r="K33" s="13">
-        <v>4.7100000000000002E-7</v>
+        <v>2.5699999999999999E-7</v>
       </c>
       <c r="L33" s="13">
-        <v>1.17E-7</v>
+        <v>2.4600000000000002E-5</v>
       </c>
       <c r="M33" s="5" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N33" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A34" s="11" t="s">
         <v>129</v>
       </c>
@@ -2521,69 +2547,69 @@
         <v>128</v>
       </c>
       <c r="G34" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="H34" s="4"/>
       <c r="M34" s="5"/>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A35" s="11" t="s">
         <v>129</v>
       </c>
       <c r="B35" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="C35">
-        <v>2566</v>
-      </c>
-      <c r="D35">
-        <v>3906</v>
-      </c>
-      <c r="E35" t="s">
-        <v>72</v>
-      </c>
-      <c r="F35" s="17" t="s">
-        <v>60</v>
-      </c>
       <c r="G35" t="s">
-        <v>59</v>
-      </c>
-      <c r="H35" s="10">
-        <v>1.4100000000000001E-7</v>
-      </c>
-      <c r="I35" t="s">
-        <v>8</v>
-      </c>
-      <c r="J35" s="13">
-        <v>7.7099999999999998E-3</v>
-      </c>
-      <c r="K35" s="13">
-        <v>8.6899999999999998E-4</v>
-      </c>
-      <c r="L35" s="13">
-        <v>4.6299999999999998E-8</v>
-      </c>
-      <c r="M35" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
+        <v>53</v>
+      </c>
+      <c r="H35" s="4"/>
+      <c r="M35" s="5"/>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A36" s="11" t="s">
         <v>129</v>
       </c>
       <c r="B36" s="4" t="s">
         <v>128</v>
       </c>
+      <c r="C36">
+        <v>3071</v>
+      </c>
+      <c r="D36">
+        <v>5027</v>
+      </c>
       <c r="E36" t="s">
-        <v>61</v>
-      </c>
-      <c r="F36" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="H36" s="4"/>
-      <c r="M36" s="5"/>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
+        <v>58</v>
+      </c>
+      <c r="F36" t="s">
+        <v>53</v>
+      </c>
+      <c r="G36" t="s">
+        <v>56</v>
+      </c>
+      <c r="H36" s="10">
+        <v>6.34E-9</v>
+      </c>
+      <c r="I36" t="s">
+        <v>8</v>
+      </c>
+      <c r="J36" s="13">
+        <v>6.7700000000000004E-6</v>
+      </c>
+      <c r="K36" s="13">
+        <v>4.6600000000000005E-10</v>
+      </c>
+      <c r="L36" s="13">
+        <v>2.8699999999999998E-11</v>
+      </c>
+      <c r="M36" s="9">
+        <v>1.8699999999999999E-14</v>
+      </c>
+      <c r="N36" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A37" s="11" t="s">
         <v>129</v>
       </c>
@@ -2591,40 +2617,40 @@
         <v>128</v>
       </c>
       <c r="C37">
-        <v>2236</v>
+        <v>101</v>
       </c>
       <c r="D37">
-        <v>2304</v>
+        <v>758</v>
       </c>
       <c r="E37" t="s">
-        <v>72</v>
-      </c>
-      <c r="F37" s="17" t="s">
-        <v>63</v>
+        <v>60</v>
+      </c>
+      <c r="F37" t="s">
+        <v>57</v>
       </c>
       <c r="G37" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="H37" s="10">
-        <v>1.34E-4</v>
+        <v>5.9400000000000002E-10</v>
       </c>
       <c r="I37" s="13">
-        <v>1.34E-3</v>
-      </c>
-      <c r="J37" t="s">
-        <v>8</v>
+        <v>8.3099999999999996E-8</v>
+      </c>
+      <c r="J37" s="13">
+        <v>2.9799999999999999E-7</v>
       </c>
       <c r="K37" s="13">
-        <v>2.2699999999999999E-3</v>
+        <v>4.7100000000000002E-7</v>
       </c>
       <c r="L37" s="13">
-        <v>2.3E-2</v>
+        <v>1.17E-7</v>
       </c>
       <c r="M37" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A38" s="11" t="s">
         <v>129</v>
       </c>
@@ -2632,222 +2658,194 @@
         <v>128</v>
       </c>
       <c r="G38" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="H38" s="4"/>
       <c r="M38" s="5"/>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A39" s="11" t="s">
         <v>129</v>
       </c>
       <c r="B39" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="C39" t="s">
-        <v>65</v>
-      </c>
-      <c r="D39" t="s">
-        <v>66</v>
+      <c r="C39">
+        <v>2566</v>
+      </c>
+      <c r="D39">
+        <v>3906</v>
       </c>
       <c r="E39" t="s">
-        <v>56</v>
-      </c>
-      <c r="F39" s="17" t="s">
-        <v>67</v>
+        <v>72</v>
+      </c>
+      <c r="F39" t="s">
+        <v>60</v>
       </c>
       <c r="G39" t="s">
-        <v>58</v>
-      </c>
-      <c r="H39" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="I39" s="13">
-        <v>1.2900000000000001E-14</v>
+        <v>59</v>
+      </c>
+      <c r="H39" s="10">
+        <v>1.4100000000000001E-7</v>
+      </c>
+      <c r="I39" t="s">
+        <v>8</v>
       </c>
       <c r="J39" s="13">
-        <v>5.8700000000000005E-14</v>
+        <v>7.7099999999999998E-3</v>
       </c>
       <c r="K39" s="13">
-        <v>5.4000000000000001E-4</v>
+        <v>8.6899999999999998E-4</v>
       </c>
       <c r="L39" s="13">
-        <v>4.1600000000000002E-8</v>
+        <v>4.6299999999999998E-8</v>
       </c>
       <c r="M39" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A40" s="11" t="s">
         <v>129</v>
       </c>
       <c r="B40" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="G40" t="s">
-        <v>53</v>
+      <c r="E40" t="s">
+        <v>61</v>
+      </c>
+      <c r="F40" t="s">
+        <v>62</v>
       </c>
       <c r="H40" s="4"/>
       <c r="M40" s="5"/>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A41" s="11" t="s">
         <v>129</v>
       </c>
       <c r="B41" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="C41" t="s">
-        <v>68</v>
-      </c>
-      <c r="D41" t="s">
-        <v>69</v>
+      <c r="C41">
+        <v>2236</v>
+      </c>
+      <c r="D41">
+        <v>2304</v>
       </c>
       <c r="E41" t="s">
-        <v>56</v>
-      </c>
-      <c r="F41" s="17" t="s">
-        <v>67</v>
+        <v>72</v>
+      </c>
+      <c r="F41" t="s">
+        <v>63</v>
       </c>
       <c r="G41" t="s">
         <v>53</v>
       </c>
-      <c r="H41" s="4" t="s">
-        <v>8</v>
+      <c r="H41" s="10">
+        <v>1.34E-4</v>
       </c>
       <c r="I41" s="13">
-        <v>8.4699999999999997E-10</v>
-      </c>
-      <c r="J41" s="13">
-        <v>2.67E-7</v>
+        <v>1.34E-3</v>
+      </c>
+      <c r="J41" t="s">
+        <v>8</v>
       </c>
       <c r="K41" s="13">
-        <v>3.0100000000000001E-3</v>
+        <v>2.2699999999999999E-3</v>
       </c>
       <c r="L41" s="13">
-        <v>1.94E-4</v>
+        <v>2.3E-2</v>
       </c>
       <c r="M41" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A42" s="11" t="s">
         <v>129</v>
       </c>
       <c r="B42" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="C42" t="s">
-        <v>70</v>
-      </c>
-      <c r="D42">
-        <v>441</v>
-      </c>
-      <c r="E42" t="s">
-        <v>73</v>
-      </c>
-      <c r="F42" s="17" t="s">
-        <v>53</v>
-      </c>
       <c r="G42" t="s">
-        <v>57</v>
-      </c>
-      <c r="H42" s="10">
-        <v>7.1199999999999996E-3</v>
-      </c>
-      <c r="I42" t="s">
-        <v>8</v>
-      </c>
-      <c r="J42" s="13">
-        <v>2.8999999999999998E-3</v>
-      </c>
-      <c r="K42" s="13">
-        <v>6.8999999999999999E-3</v>
-      </c>
-      <c r="L42" t="s">
-        <v>8</v>
-      </c>
-      <c r="M42" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
+        <v>58</v>
+      </c>
+      <c r="H42" s="4"/>
+      <c r="M42" s="5"/>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A43" s="11" t="s">
         <v>129</v>
       </c>
       <c r="B43" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="F43" s="17" t="s">
-        <v>72</v>
+      <c r="C43" t="s">
+        <v>65</v>
+      </c>
+      <c r="D43" t="s">
+        <v>66</v>
+      </c>
+      <c r="E43" t="s">
+        <v>56</v>
+      </c>
+      <c r="F43" t="s">
+        <v>67</v>
       </c>
       <c r="G43" t="s">
-        <v>71</v>
-      </c>
-      <c r="H43" s="4"/>
-      <c r="M43" s="5"/>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
+        <v>58</v>
+      </c>
+      <c r="H43" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I43" s="13">
+        <v>1.2900000000000001E-14</v>
+      </c>
+      <c r="J43" s="13">
+        <v>5.8700000000000005E-14</v>
+      </c>
+      <c r="K43" s="13">
+        <v>5.4000000000000001E-4</v>
+      </c>
+      <c r="L43" s="13">
+        <v>4.1600000000000002E-8</v>
+      </c>
+      <c r="M43" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A44" s="11" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B44" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="C44">
-        <v>3028</v>
-      </c>
-      <c r="D44">
-        <v>396</v>
-      </c>
-      <c r="E44" t="s">
-        <v>81</v>
-      </c>
-      <c r="F44" s="17" t="s">
-        <v>72</v>
-      </c>
       <c r="G44" t="s">
-        <v>75</v>
-      </c>
-      <c r="H44" s="10">
-        <v>5.8000000000000003E-52</v>
-      </c>
-      <c r="I44" s="13">
-        <v>3.2600000000000002E-76</v>
-      </c>
-      <c r="J44" s="13">
-        <v>2.2399999999999998E-71</v>
-      </c>
-      <c r="K44" s="13">
-        <v>6.1099999999999999E-44</v>
-      </c>
-      <c r="L44" s="13">
-        <v>1.54E-21</v>
-      </c>
-      <c r="M44" s="9">
-        <v>9.7700000000000003E-14</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
+        <v>53</v>
+      </c>
+      <c r="H44" s="4"/>
+      <c r="M44" s="5"/>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A45" s="11" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B45" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="C45">
-        <v>7443</v>
-      </c>
-      <c r="D45">
-        <v>269</v>
+      <c r="C45" t="s">
+        <v>68</v>
+      </c>
+      <c r="D45" t="s">
+        <v>69</v>
       </c>
       <c r="E45" t="s">
         <v>56</v>
       </c>
-      <c r="F45" s="17" t="s">
-        <v>54</v>
+      <c r="F45" t="s">
+        <v>67</v>
       </c>
       <c r="G45" t="s">
         <v>53</v>
@@ -2855,77 +2853,80 @@
       <c r="H45" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="I45" t="s">
-        <v>8</v>
+      <c r="I45" s="13">
+        <v>8.4699999999999997E-10</v>
       </c>
       <c r="J45" s="13">
-        <v>4.5200000000000001E-12</v>
+        <v>2.67E-7</v>
       </c>
       <c r="K45" s="13">
-        <v>6.5899999999999998E-9</v>
+        <v>3.0100000000000001E-3</v>
       </c>
       <c r="L45" s="13">
-        <v>2.0400000000000001E-5</v>
+        <v>1.94E-4</v>
       </c>
       <c r="M45" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A46" s="11" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B46" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="C46">
-        <v>7733</v>
+      <c r="C46" t="s">
+        <v>70</v>
       </c>
       <c r="D46">
-        <v>847</v>
+        <v>441</v>
       </c>
       <c r="E46" t="s">
-        <v>62</v>
-      </c>
-      <c r="F46" s="17" t="s">
-        <v>76</v>
+        <v>73</v>
+      </c>
+      <c r="F46" t="s">
+        <v>53</v>
       </c>
       <c r="G46" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H46" s="10">
-        <v>5.5700000000000002E-8</v>
+        <v>7.1199999999999996E-3</v>
       </c>
       <c r="I46" t="s">
         <v>8</v>
       </c>
       <c r="J46" s="13">
-        <v>4.7200000000000002E-9</v>
+        <v>2.8999999999999998E-3</v>
       </c>
       <c r="K46" s="13">
-        <v>7.2499999999999995E-4</v>
-      </c>
-      <c r="L46" s="13">
-        <v>6.4500000000000002E-8</v>
+        <v>6.8999999999999999E-3</v>
+      </c>
+      <c r="L46" t="s">
+        <v>8</v>
       </c>
       <c r="M46" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A47" s="11" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B47" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="F47" s="17" t="s">
-        <v>77</v>
+      <c r="F47" t="s">
+        <v>72</v>
+      </c>
+      <c r="G47" t="s">
+        <v>71</v>
       </c>
       <c r="H47" s="4"/>
       <c r="M47" s="5"/>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A48" s="11" t="s">
         <v>130</v>
       </c>
@@ -2933,37 +2934,37 @@
         <v>128</v>
       </c>
       <c r="C48">
-        <v>3070</v>
+        <v>3028</v>
       </c>
       <c r="D48">
-        <v>5027</v>
+        <v>396</v>
       </c>
       <c r="E48" t="s">
-        <v>58</v>
-      </c>
-      <c r="F48" s="17" t="s">
-        <v>53</v>
+        <v>81</v>
+      </c>
+      <c r="F48" t="s">
+        <v>72</v>
       </c>
       <c r="G48" t="s">
-        <v>56</v>
+        <v>75</v>
       </c>
       <c r="H48" s="10">
-        <v>1.66E-8</v>
-      </c>
-      <c r="I48" t="s">
-        <v>8</v>
+        <v>5.8000000000000003E-52</v>
+      </c>
+      <c r="I48" s="13">
+        <v>3.2600000000000002E-76</v>
       </c>
       <c r="J48" s="13">
-        <v>1.77E-5</v>
+        <v>2.2399999999999998E-71</v>
       </c>
       <c r="K48" s="13">
-        <v>1.2199999999999999E-9</v>
+        <v>6.1099999999999999E-44</v>
       </c>
       <c r="L48" s="13">
-        <v>7.5199999999999996E-11</v>
+        <v>1.54E-21</v>
       </c>
       <c r="M48" s="9">
-        <v>4.8799999999999998E-14</v>
+        <v>9.7700000000000003E-14</v>
       </c>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.2">
@@ -2974,34 +2975,34 @@
         <v>128</v>
       </c>
       <c r="C49">
-        <v>6863</v>
+        <v>7443</v>
       </c>
       <c r="D49">
-        <v>793</v>
+        <v>269</v>
       </c>
       <c r="E49" t="s">
-        <v>60</v>
-      </c>
-      <c r="F49" s="17" t="s">
-        <v>78</v>
+        <v>56</v>
+      </c>
+      <c r="F49" t="s">
+        <v>54</v>
       </c>
       <c r="G49" t="s">
-        <v>58</v>
-      </c>
-      <c r="H49" s="10">
-        <v>2.09E-11</v>
-      </c>
-      <c r="I49" s="13">
-        <v>3.5199999999999999E-4</v>
+        <v>53</v>
+      </c>
+      <c r="H49" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I49" t="s">
+        <v>8</v>
       </c>
       <c r="J49" s="13">
-        <v>9.9200000000000009E-10</v>
+        <v>4.5200000000000001E-12</v>
       </c>
       <c r="K49" s="13">
-        <v>3.4300000000000002E-6</v>
+        <v>6.5899999999999998E-9</v>
       </c>
       <c r="L49" s="13">
-        <v>9.1400000000000006E-6</v>
+        <v>2.0400000000000001E-5</v>
       </c>
       <c r="M49" s="5" t="s">
         <v>8</v>
@@ -3014,14 +3015,39 @@
       <c r="B50" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="F50" s="17" t="s">
-        <v>79</v>
+      <c r="C50">
+        <v>7733</v>
+      </c>
+      <c r="D50">
+        <v>847</v>
+      </c>
+      <c r="E50" t="s">
+        <v>62</v>
+      </c>
+      <c r="F50" t="s">
+        <v>76</v>
       </c>
       <c r="G50" t="s">
-        <v>53</v>
-      </c>
-      <c r="H50" s="4"/>
-      <c r="M50" s="5"/>
+        <v>58</v>
+      </c>
+      <c r="H50" s="10">
+        <v>5.5700000000000002E-8</v>
+      </c>
+      <c r="I50" t="s">
+        <v>8</v>
+      </c>
+      <c r="J50" s="13">
+        <v>4.7200000000000002E-9</v>
+      </c>
+      <c r="K50" s="13">
+        <v>7.2499999999999995E-4</v>
+      </c>
+      <c r="L50" s="13">
+        <v>6.4500000000000002E-8</v>
+      </c>
+      <c r="M50" s="5" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A51" s="11" t="s">
@@ -3030,39 +3056,11 @@
       <c r="B51" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="C51" t="s">
-        <v>82</v>
-      </c>
-      <c r="D51" t="s">
-        <v>83</v>
-      </c>
-      <c r="E51" t="s">
-        <v>80</v>
-      </c>
-      <c r="F51" s="17" t="s">
-        <v>85</v>
-      </c>
-      <c r="G51" t="s">
-        <v>84</v>
-      </c>
-      <c r="H51" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="I51" s="13">
-        <v>2.1199999999999999E-11</v>
-      </c>
-      <c r="J51" s="13">
-        <v>1.0699999999999999E-11</v>
-      </c>
-      <c r="K51" s="13">
-        <v>5.1999999999999997E-16</v>
-      </c>
-      <c r="L51" t="s">
-        <v>8</v>
-      </c>
-      <c r="M51" s="5" t="s">
-        <v>8</v>
-      </c>
+      <c r="F51" t="s">
+        <v>77</v>
+      </c>
+      <c r="H51" s="4"/>
+      <c r="M51" s="5"/>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A52" s="11" t="s">
@@ -3072,37 +3070,37 @@
         <v>128</v>
       </c>
       <c r="C52">
-        <v>6796</v>
-      </c>
-      <c r="D52" t="s">
-        <v>86</v>
+        <v>3070</v>
+      </c>
+      <c r="D52">
+        <v>5027</v>
       </c>
       <c r="E52" t="s">
-        <v>60</v>
-      </c>
-      <c r="F52" s="17" t="s">
-        <v>62</v>
+        <v>58</v>
+      </c>
+      <c r="F52" t="s">
+        <v>53</v>
       </c>
       <c r="G52" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="H52" s="10">
-        <v>1.66E-4</v>
-      </c>
-      <c r="I52" s="13">
-        <v>9.6100000000000005E-4</v>
-      </c>
-      <c r="J52" t="s">
-        <v>8</v>
-      </c>
-      <c r="K52" t="s">
-        <v>8</v>
-      </c>
-      <c r="L52" t="s">
-        <v>8</v>
-      </c>
-      <c r="M52" s="5" t="s">
-        <v>8</v>
+        <v>1.66E-8</v>
+      </c>
+      <c r="I52" t="s">
+        <v>8</v>
+      </c>
+      <c r="J52" s="13">
+        <v>1.77E-5</v>
+      </c>
+      <c r="K52" s="13">
+        <v>1.2199999999999999E-9</v>
+      </c>
+      <c r="L52" s="13">
+        <v>7.5199999999999996E-11</v>
+      </c>
+      <c r="M52" s="9">
+        <v>4.8799999999999998E-14</v>
       </c>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.2">
@@ -3112,11 +3110,39 @@
       <c r="B53" s="4" t="s">
         <v>128</v>
       </c>
+      <c r="C53">
+        <v>6863</v>
+      </c>
+      <c r="D53">
+        <v>793</v>
+      </c>
+      <c r="E53" t="s">
+        <v>60</v>
+      </c>
+      <c r="F53" t="s">
+        <v>78</v>
+      </c>
       <c r="G53" t="s">
-        <v>87</v>
-      </c>
-      <c r="H53" s="4"/>
-      <c r="M53" s="5"/>
+        <v>58</v>
+      </c>
+      <c r="H53" s="10">
+        <v>2.09E-11</v>
+      </c>
+      <c r="I53" s="13">
+        <v>3.5199999999999999E-4</v>
+      </c>
+      <c r="J53" s="13">
+        <v>9.9200000000000009E-10</v>
+      </c>
+      <c r="K53" s="13">
+        <v>3.4300000000000002E-6</v>
+      </c>
+      <c r="L53" s="13">
+        <v>9.1400000000000006E-6</v>
+      </c>
+      <c r="M53" s="5" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A54" s="11" t="s">
@@ -3125,39 +3151,14 @@
       <c r="B54" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="C54">
-        <v>2237</v>
-      </c>
-      <c r="D54">
-        <v>2303</v>
-      </c>
-      <c r="E54" t="s">
-        <v>72</v>
-      </c>
-      <c r="F54" s="17" t="s">
-        <v>63</v>
+      <c r="F54" t="s">
+        <v>79</v>
       </c>
       <c r="G54" t="s">
         <v>53</v>
       </c>
-      <c r="H54" s="10">
-        <v>2.2000000000000001E-4</v>
-      </c>
-      <c r="I54" s="13">
-        <v>2.4599999999999999E-3</v>
-      </c>
-      <c r="J54" t="s">
-        <v>8</v>
-      </c>
-      <c r="K54" s="13">
-        <v>4.0299999999999997E-3</v>
-      </c>
-      <c r="L54" s="13">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="M54" s="5" t="s">
-        <v>8</v>
-      </c>
+      <c r="H54" s="4"/>
+      <c r="M54" s="5"/>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A55" s="11" t="s">
@@ -3166,32 +3167,32 @@
       <c r="B55" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="C55">
-        <v>0</v>
-      </c>
-      <c r="D55">
-        <v>384</v>
+      <c r="C55" t="s">
+        <v>82</v>
+      </c>
+      <c r="D55" t="s">
+        <v>83</v>
       </c>
       <c r="E55" t="s">
-        <v>74</v>
-      </c>
-      <c r="F55" s="17" t="s">
-        <v>54</v>
+        <v>80</v>
+      </c>
+      <c r="F55" t="s">
+        <v>85</v>
       </c>
       <c r="G55" t="s">
-        <v>53</v>
-      </c>
-      <c r="H55" s="10">
-        <v>3.3899999999999998E-3</v>
+        <v>84</v>
+      </c>
+      <c r="H55" s="4" t="s">
+        <v>8</v>
       </c>
       <c r="I55" s="13">
-        <v>1.78E-2</v>
+        <v>2.1199999999999999E-11</v>
       </c>
       <c r="J55" s="13">
-        <v>1.3599999999999999E-2</v>
+        <v>1.0699999999999999E-11</v>
       </c>
       <c r="K55" s="13">
-        <v>1.3799999999999999E-4</v>
+        <v>5.1999999999999997E-16</v>
       </c>
       <c r="L55" t="s">
         <v>8</v>
@@ -3207,14 +3208,39 @@
       <c r="B56" s="4" t="s">
         <v>128</v>
       </c>
+      <c r="C56">
+        <v>6796</v>
+      </c>
+      <c r="D56" t="s">
+        <v>86</v>
+      </c>
       <c r="E56" t="s">
-        <v>72</v>
+        <v>60</v>
+      </c>
+      <c r="F56" t="s">
+        <v>62</v>
       </c>
       <c r="G56" t="s">
-        <v>58</v>
-      </c>
-      <c r="H56" s="4"/>
-      <c r="M56" s="5"/>
+        <v>64</v>
+      </c>
+      <c r="H56" s="10">
+        <v>1.66E-4</v>
+      </c>
+      <c r="I56" s="13">
+        <v>9.6100000000000005E-4</v>
+      </c>
+      <c r="J56" t="s">
+        <v>8</v>
+      </c>
+      <c r="K56" t="s">
+        <v>8</v>
+      </c>
+      <c r="L56" t="s">
+        <v>8</v>
+      </c>
+      <c r="M56" s="5" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A57" s="11" t="s">
@@ -3223,120 +3249,89 @@
       <c r="B57" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="C57">
-        <v>1752</v>
-      </c>
-      <c r="D57">
-        <v>1933</v>
-      </c>
-      <c r="E57" t="s">
-        <v>75</v>
-      </c>
-      <c r="F57" s="17" t="s">
-        <v>81</v>
-      </c>
       <c r="G57" t="s">
-        <v>53</v>
-      </c>
-      <c r="H57" s="10">
-        <v>1.44E-2</v>
-      </c>
-      <c r="I57" t="s">
-        <v>8</v>
-      </c>
-      <c r="J57" s="13">
-        <v>8.2500000000000004E-3</v>
-      </c>
-      <c r="K57" s="13">
-        <v>5.3499999999999997E-3</v>
-      </c>
-      <c r="L57" s="13">
-        <v>9.4900000000000002E-3</v>
-      </c>
-      <c r="M57" s="5" t="s">
-        <v>8</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="H57" s="4"/>
+      <c r="M57" s="5"/>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A58" s="11" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C58">
-        <v>3225</v>
+        <v>2237</v>
       </c>
       <c r="D58">
-        <v>7029</v>
+        <v>2303</v>
       </c>
       <c r="E58" t="s">
-        <v>88</v>
-      </c>
-      <c r="F58" s="17" t="s">
-        <v>91</v>
+        <v>72</v>
+      </c>
+      <c r="F58" t="s">
+        <v>63</v>
       </c>
       <c r="G58" t="s">
-        <v>90</v>
+        <v>53</v>
       </c>
       <c r="H58" s="10">
-        <v>4.64E-3</v>
-      </c>
-      <c r="I58" t="s">
-        <v>8</v>
+        <v>2.2000000000000001E-4</v>
+      </c>
+      <c r="I58" s="13">
+        <v>2.4599999999999999E-3</v>
       </c>
       <c r="J58" t="s">
         <v>8</v>
       </c>
       <c r="K58" s="13">
-        <v>3.18E-5</v>
+        <v>4.0299999999999997E-3</v>
       </c>
       <c r="L58" s="13">
-        <v>3.9700000000000003E-5</v>
-      </c>
-      <c r="M58" s="9">
-        <v>3.6600000000000001E-4</v>
-      </c>
-      <c r="N58" t="s">
-        <v>145</v>
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="M58" s="5" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A59" s="11" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C59">
-        <v>7749</v>
+        <v>0</v>
       </c>
       <c r="D59">
-        <v>893</v>
+        <v>384</v>
       </c>
       <c r="E59" t="s">
-        <v>144</v>
-      </c>
-      <c r="F59" s="17" t="s">
-        <v>89</v>
+        <v>74</v>
+      </c>
+      <c r="F59" t="s">
+        <v>54</v>
       </c>
       <c r="G59" t="s">
-        <v>90</v>
+        <v>53</v>
       </c>
       <c r="H59" s="10">
-        <v>1.29E-2</v>
-      </c>
-      <c r="I59" t="s">
-        <v>8</v>
+        <v>3.3899999999999998E-3</v>
+      </c>
+      <c r="I59" s="13">
+        <v>1.78E-2</v>
       </c>
       <c r="J59" s="13">
-        <v>1.21E-2</v>
+        <v>1.3599999999999999E-2</v>
       </c>
       <c r="K59" s="13">
-        <v>1.9699999999999999E-2</v>
-      </c>
-      <c r="L59" s="13">
-        <v>2.03E-4</v>
+        <v>1.3799999999999999E-4</v>
+      </c>
+      <c r="L59" t="s">
+        <v>8</v>
       </c>
       <c r="M59" s="5" t="s">
         <v>8</v>
@@ -3344,138 +3339,141 @@
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A60" s="11" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="C60">
-        <v>6645</v>
-      </c>
-      <c r="D60">
-        <v>6815</v>
+        <v>128</v>
       </c>
       <c r="E60" t="s">
-        <v>92</v>
-      </c>
-      <c r="F60" s="17" t="s">
-        <v>90</v>
+        <v>72</v>
       </c>
       <c r="G60" t="s">
-        <v>89</v>
-      </c>
-      <c r="H60" s="10">
-        <v>4.2200000000000001E-2</v>
-      </c>
-      <c r="I60" t="s">
-        <v>8</v>
-      </c>
-      <c r="J60" t="s">
-        <v>8</v>
-      </c>
-      <c r="K60" s="13">
-        <v>1.6800000000000001E-3</v>
-      </c>
-      <c r="L60" s="13">
-        <v>1.1999999999999999E-3</v>
-      </c>
-      <c r="M60" s="9">
-        <v>3.78E-2</v>
-      </c>
-      <c r="N60" t="s">
-        <v>145</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="H60" s="4"/>
+      <c r="M60" s="5"/>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A61" s="11" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="F61" s="17" t="s">
-        <v>93</v>
-      </c>
-      <c r="H61" s="4"/>
-      <c r="M61" s="5"/>
+        <v>128</v>
+      </c>
+      <c r="C61">
+        <v>1752</v>
+      </c>
+      <c r="D61">
+        <v>1933</v>
+      </c>
+      <c r="E61" t="s">
+        <v>75</v>
+      </c>
+      <c r="F61" t="s">
+        <v>81</v>
+      </c>
+      <c r="G61" t="s">
+        <v>53</v>
+      </c>
+      <c r="H61" s="10">
+        <v>1.44E-2</v>
+      </c>
+      <c r="I61" t="s">
+        <v>8</v>
+      </c>
+      <c r="J61" s="13">
+        <v>8.2500000000000004E-3</v>
+      </c>
+      <c r="K61" s="13">
+        <v>5.3499999999999997E-3</v>
+      </c>
+      <c r="L61" s="13">
+        <v>9.4900000000000002E-3</v>
+      </c>
+      <c r="M61" s="5" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A62" s="11" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B62" s="4" t="s">
         <v>131</v>
       </c>
       <c r="C62">
-        <v>1421</v>
+        <v>3225</v>
       </c>
       <c r="D62">
-        <v>1609</v>
+        <v>7029</v>
       </c>
       <c r="E62" t="s">
-        <v>92</v>
-      </c>
-      <c r="F62" s="17" t="s">
-        <v>96</v>
+        <v>88</v>
+      </c>
+      <c r="F62" t="s">
+        <v>91</v>
       </c>
       <c r="G62" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="H62" s="10">
-        <v>1.2800000000000001E-3</v>
+        <v>4.64E-3</v>
       </c>
       <c r="I62" t="s">
         <v>8</v>
       </c>
-      <c r="J62" s="13">
-        <v>1.01E-5</v>
-      </c>
-      <c r="K62" t="s">
-        <v>8</v>
+      <c r="J62" t="s">
+        <v>8</v>
+      </c>
+      <c r="K62" s="13">
+        <v>3.18E-5</v>
       </c>
       <c r="L62" s="13">
-        <v>4.5199999999999997E-2</v>
+        <v>3.9700000000000003E-5</v>
       </c>
       <c r="M62" s="9">
-        <v>3.6099999999999999E-4</v>
+        <v>3.6600000000000001E-4</v>
+      </c>
+      <c r="N62" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A63" s="11" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B63" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="C63" t="s">
-        <v>98</v>
-      </c>
-      <c r="D63" t="s">
-        <v>99</v>
+      <c r="C63">
+        <v>7749</v>
+      </c>
+      <c r="D63">
+        <v>893</v>
       </c>
       <c r="E63" t="s">
-        <v>97</v>
-      </c>
-      <c r="F63" s="17" t="s">
-        <v>100</v>
+        <v>144</v>
+      </c>
+      <c r="F63" t="s">
+        <v>89</v>
       </c>
       <c r="G63" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="H63" s="10">
-        <v>3.9699999999999999E-2</v>
+        <v>1.29E-2</v>
       </c>
       <c r="I63" t="s">
         <v>8</v>
       </c>
       <c r="J63" s="13">
-        <v>7.8100000000000001E-3</v>
+        <v>1.21E-2</v>
       </c>
       <c r="K63" s="13">
-        <v>6.1200000000000003E-7</v>
+        <v>1.9699999999999999E-2</v>
       </c>
       <c r="L63" s="13">
-        <v>8.5899999999999995E-4</v>
+        <v>2.03E-4</v>
       </c>
       <c r="M63" s="5" t="s">
         <v>8</v>
@@ -3483,241 +3481,380 @@
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A64" s="11" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B64" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="H64" s="4"/>
-      <c r="M64" s="5"/>
+      <c r="C64">
+        <v>6645</v>
+      </c>
+      <c r="D64">
+        <v>6815</v>
+      </c>
+      <c r="E64" t="s">
+        <v>92</v>
+      </c>
+      <c r="F64" t="s">
+        <v>90</v>
+      </c>
+      <c r="G64" t="s">
+        <v>89</v>
+      </c>
+      <c r="H64" s="10">
+        <v>4.2200000000000001E-2</v>
+      </c>
+      <c r="I64" t="s">
+        <v>8</v>
+      </c>
+      <c r="J64" t="s">
+        <v>8</v>
+      </c>
+      <c r="K64" s="13">
+        <v>1.6800000000000001E-3</v>
+      </c>
+      <c r="L64" s="13">
+        <v>1.1999999999999999E-3</v>
+      </c>
+      <c r="M64" s="9">
+        <v>3.78E-2</v>
+      </c>
+      <c r="N64" t="s">
+        <v>145</v>
+      </c>
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A65" s="11" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="C65">
-        <v>6968</v>
-      </c>
-      <c r="D65">
-        <v>7180</v>
-      </c>
-      <c r="E65" t="s">
-        <v>12</v>
-      </c>
-      <c r="F65" s="17" t="s">
-        <v>102</v>
-      </c>
-      <c r="G65" t="s">
-        <v>101</v>
-      </c>
-      <c r="H65" s="10">
-        <v>1.0400000000000001E-20</v>
-      </c>
-      <c r="I65" s="13">
-        <v>3.0899999999999997E-7</v>
-      </c>
-      <c r="J65" s="13">
-        <v>4.54E-21</v>
-      </c>
-      <c r="K65" s="13">
-        <v>9.7300000000000003E-11</v>
-      </c>
-      <c r="L65" s="13">
-        <v>6.3199999999999999E-10</v>
-      </c>
-      <c r="M65" s="9">
-        <v>8.0499999999999993E-9</v>
-      </c>
-      <c r="N65" t="s">
-        <v>145</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="F65" t="s">
+        <v>93</v>
+      </c>
+      <c r="H65" s="4"/>
+      <c r="M65" s="5"/>
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A66" s="11" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="F66" s="17" t="s">
-        <v>104</v>
+        <v>131</v>
+      </c>
+      <c r="C66">
+        <v>1421</v>
+      </c>
+      <c r="D66">
+        <v>1609</v>
+      </c>
+      <c r="E66" t="s">
+        <v>92</v>
+      </c>
+      <c r="F66" t="s">
+        <v>96</v>
       </c>
       <c r="G66" t="s">
-        <v>103</v>
-      </c>
-      <c r="H66" s="4"/>
-      <c r="M66" s="5"/>
+        <v>95</v>
+      </c>
+      <c r="H66" s="10">
+        <v>1.2800000000000001E-3</v>
+      </c>
+      <c r="I66" t="s">
+        <v>8</v>
+      </c>
+      <c r="J66" s="13">
+        <v>1.01E-5</v>
+      </c>
+      <c r="K66" t="s">
+        <v>8</v>
+      </c>
+      <c r="L66" s="13">
+        <v>4.5199999999999997E-2</v>
+      </c>
+      <c r="M66" s="9">
+        <v>3.6099999999999999E-4</v>
+      </c>
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A67" s="11" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C67" t="s">
-        <v>105</v>
-      </c>
-      <c r="D67">
-        <v>915</v>
+        <v>98</v>
+      </c>
+      <c r="D67" t="s">
+        <v>99</v>
       </c>
       <c r="E67" t="s">
-        <v>102</v>
-      </c>
-      <c r="F67" s="17" t="s">
-        <v>104</v>
+        <v>97</v>
+      </c>
+      <c r="F67" t="s">
+        <v>100</v>
       </c>
       <c r="G67" t="s">
-        <v>12</v>
+        <v>94</v>
       </c>
       <c r="H67" s="10">
-        <v>4.6999999999999999E-6</v>
+        <v>3.9699999999999999E-2</v>
       </c>
       <c r="I67" t="s">
         <v>8</v>
       </c>
       <c r="J67" s="13">
-        <v>5.4699999999999996E-4</v>
+        <v>7.8100000000000001E-3</v>
       </c>
       <c r="K67" s="13">
-        <v>1.1900000000000001E-8</v>
+        <v>6.1200000000000003E-7</v>
       </c>
       <c r="L67" s="13">
-        <v>1.7600000000000001E-6</v>
-      </c>
-      <c r="M67" s="9">
-        <v>1.66E-4</v>
-      </c>
-      <c r="N67" t="s">
-        <v>145</v>
+        <v>8.5899999999999995E-4</v>
+      </c>
+      <c r="M67" s="5" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A68" s="11" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="C68">
-        <v>1128</v>
-      </c>
-      <c r="D68">
-        <v>1887</v>
-      </c>
-      <c r="E68" t="s">
-        <v>108</v>
-      </c>
-      <c r="F68" s="17" t="s">
-        <v>107</v>
-      </c>
-      <c r="G68" t="s">
-        <v>106</v>
-      </c>
-      <c r="H68" s="10">
-        <v>6.1900000000000002E-3</v>
-      </c>
-      <c r="I68" t="s">
-        <v>8</v>
-      </c>
-      <c r="J68" s="13">
-        <v>1.06E-2</v>
-      </c>
-      <c r="K68" s="13">
-        <v>3.3399999999999999E-2</v>
-      </c>
-      <c r="L68">
-        <v>4.2472084E-2</v>
-      </c>
-      <c r="M68" s="5" t="s">
-        <v>8</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="H68" s="4"/>
+      <c r="M68" s="5"/>
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A69" s="11" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B69" s="4" t="s">
         <v>134</v>
       </c>
       <c r="C69">
-        <v>5039</v>
+        <v>6968</v>
       </c>
       <c r="D69">
-        <v>913</v>
+        <v>7180</v>
       </c>
       <c r="E69" t="s">
-        <v>110</v>
-      </c>
-      <c r="F69" s="17" t="s">
-        <v>104</v>
+        <v>12</v>
+      </c>
+      <c r="F69" t="s">
+        <v>102</v>
       </c>
       <c r="G69" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H69" s="10">
-        <v>2.33E-15</v>
-      </c>
-      <c r="I69" t="s">
-        <v>8</v>
+        <v>1.0400000000000001E-20</v>
+      </c>
+      <c r="I69" s="13">
+        <v>3.0899999999999997E-7</v>
       </c>
       <c r="J69" s="13">
-        <v>6.5599999999999999E-6</v>
+        <v>4.54E-21</v>
       </c>
       <c r="K69" s="13">
-        <v>2.02E-4</v>
+        <v>9.7300000000000003E-11</v>
       </c>
       <c r="L69" s="13">
-        <v>5.0000000000000003E-10</v>
+        <v>6.3199999999999999E-10</v>
       </c>
       <c r="M69" s="9">
-        <v>2.6600000000000002E-14</v>
+        <v>8.0499999999999993E-9</v>
       </c>
       <c r="N69" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="70" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="12" t="s">
+    <row r="70" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A70" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="F70" t="s">
+        <v>104</v>
+      </c>
+      <c r="G70" t="s">
+        <v>103</v>
+      </c>
+      <c r="H70" s="4"/>
+      <c r="M70" s="5"/>
+    </row>
+    <row r="71" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A71" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="C71" t="s">
+        <v>105</v>
+      </c>
+      <c r="D71">
+        <v>915</v>
+      </c>
+      <c r="E71" t="s">
+        <v>102</v>
+      </c>
+      <c r="F71" t="s">
+        <v>104</v>
+      </c>
+      <c r="G71" t="s">
+        <v>12</v>
+      </c>
+      <c r="H71" s="10">
+        <v>4.6999999999999999E-6</v>
+      </c>
+      <c r="I71" t="s">
+        <v>8</v>
+      </c>
+      <c r="J71" s="13">
+        <v>5.4699999999999996E-4</v>
+      </c>
+      <c r="K71" s="13">
+        <v>1.1900000000000001E-8</v>
+      </c>
+      <c r="L71" s="13">
+        <v>1.7600000000000001E-6</v>
+      </c>
+      <c r="M71" s="9">
+        <v>1.66E-4</v>
+      </c>
+      <c r="N71" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A72" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="C72">
+        <v>1128</v>
+      </c>
+      <c r="D72">
+        <v>1887</v>
+      </c>
+      <c r="E72" t="s">
+        <v>108</v>
+      </c>
+      <c r="F72" t="s">
+        <v>107</v>
+      </c>
+      <c r="G72" t="s">
+        <v>106</v>
+      </c>
+      <c r="H72" s="10">
+        <v>6.1900000000000002E-3</v>
+      </c>
+      <c r="I72" t="s">
+        <v>8</v>
+      </c>
+      <c r="J72" s="13">
+        <v>1.06E-2</v>
+      </c>
+      <c r="K72" s="13">
+        <v>3.3399999999999999E-2</v>
+      </c>
+      <c r="L72">
+        <v>4.2472084E-2</v>
+      </c>
+      <c r="M72" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A73" s="11" t="s">
         <v>136</v>
       </c>
-      <c r="B70" s="6" t="s">
+      <c r="B73" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="C70" s="7">
+      <c r="C73">
+        <v>5039</v>
+      </c>
+      <c r="D73">
+        <v>913</v>
+      </c>
+      <c r="E73" t="s">
+        <v>110</v>
+      </c>
+      <c r="F73" t="s">
+        <v>104</v>
+      </c>
+      <c r="G73" t="s">
+        <v>102</v>
+      </c>
+      <c r="H73" s="10">
+        <v>2.33E-15</v>
+      </c>
+      <c r="I73" t="s">
+        <v>8</v>
+      </c>
+      <c r="J73" s="13">
+        <v>6.5599999999999999E-6</v>
+      </c>
+      <c r="K73" s="13">
+        <v>2.02E-4</v>
+      </c>
+      <c r="L73" s="13">
+        <v>5.0000000000000003E-10</v>
+      </c>
+      <c r="M73" s="9">
+        <v>2.6600000000000002E-14</v>
+      </c>
+      <c r="N73" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="B74" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C74" s="7">
         <v>3231</v>
       </c>
-      <c r="D70" s="7" t="s">
+      <c r="D74" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="E70" s="7" t="s">
+      <c r="E74" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="F70" s="7" t="s">
+      <c r="F74" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="G70" s="7" t="s">
+      <c r="G74" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="H70" s="14">
+      <c r="H74" s="14">
         <v>1.6299999999999999E-7</v>
       </c>
-      <c r="I70" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="J70" s="15">
+      <c r="I74" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="J74" s="15">
         <v>9.02E-8</v>
       </c>
-      <c r="K70" s="15">
+      <c r="K74" s="15">
         <v>2.1100000000000001E-2</v>
       </c>
-      <c r="L70" s="15">
+      <c r="L74" s="15">
         <v>2.8799999999999999E-10</v>
       </c>
-      <c r="M70" s="8" t="s">
+      <c r="M74" s="8" t="s">
         <v>8</v>
       </c>
     </row>
